--- a/data/vgp_database/Latir_volcanic_field.xlsx
+++ b/data/vgp_database/Latir_volcanic_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A952D09-FA3B-E849-956D-8628BAE1F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D81C53-483D-1A40-A920-23BC3E159036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="405">
   <si>
     <t>Name:</t>
   </si>
@@ -813,9 +813,6 @@
   </si>
   <si>
     <t>Quartz Latite</t>
-  </si>
-  <si>
-    <t>Pyroclastic Flow</t>
   </si>
   <si>
     <t>Rhyolite</t>
@@ -1674,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10:AP143"/>
+    <sheetView tabSelected="1" topLeftCell="S107" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1705,9 +1702,9 @@
     <col min="23" max="23" width="11.83203125" customWidth="1"/>
     <col min="24" max="24" width="14.6640625" customWidth="1"/>
     <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="9.83203125" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.5" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="11.6640625" customWidth="1"/>
@@ -2403,10 +2400,10 @@
         <v>69</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB10" s="11" t="s">
         <v>256</v>
@@ -2443,7 +2440,7 @@
         <v>72</v>
       </c>
       <c r="AP10" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2511,10 +2508,10 @@
         <v>69</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB11" s="11" t="s">
         <v>256</v>
@@ -2551,7 +2548,7 @@
         <v>72</v>
       </c>
       <c r="AP11" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,10 +2616,10 @@
         <v>69</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB12" s="11" t="s">
         <v>256</v>
@@ -2659,7 +2656,7 @@
         <v>72</v>
       </c>
       <c r="AP12" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,10 +2724,10 @@
         <v>69</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB13" s="11" t="s">
         <v>256</v>
@@ -2767,7 +2764,7 @@
         <v>72</v>
       </c>
       <c r="AP13" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,10 +2832,10 @@
         <v>69</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB14" s="11" t="s">
         <v>256</v>
@@ -2875,7 +2872,7 @@
         <v>72</v>
       </c>
       <c r="AP14" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,10 +2940,10 @@
         <v>69</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB15" s="11" t="s">
         <v>256</v>
@@ -2983,7 +2980,7 @@
         <v>72</v>
       </c>
       <c r="AP15" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,10 +3048,10 @@
         <v>69</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB16" s="11" t="s">
         <v>256</v>
@@ -3091,7 +3088,7 @@
         <v>72</v>
       </c>
       <c r="AP16" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3159,10 +3156,10 @@
         <v>69</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB17" s="11" t="s">
         <v>256</v>
@@ -3199,7 +3196,7 @@
         <v>72</v>
       </c>
       <c r="AP17" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3267,10 +3264,10 @@
         <v>69</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB18" s="11" t="s">
         <v>256</v>
@@ -3307,7 +3304,7 @@
         <v>72</v>
       </c>
       <c r="AP18" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,10 +3372,10 @@
         <v>69</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB19" s="11" t="s">
         <v>256</v>
@@ -3415,7 +3412,7 @@
         <v>72</v>
       </c>
       <c r="AP19" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3483,10 +3480,10 @@
         <v>69</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB20" s="11" t="s">
         <v>256</v>
@@ -3523,7 +3520,7 @@
         <v>72</v>
       </c>
       <c r="AP20" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,10 +3588,10 @@
         <v>69</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB21" s="11" t="s">
         <v>256</v>
@@ -3631,7 +3628,7 @@
         <v>72</v>
       </c>
       <c r="AP21" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,10 +3696,10 @@
         <v>69</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB22" s="11" t="s">
         <v>256</v>
@@ -3739,7 +3736,7 @@
         <v>72</v>
       </c>
       <c r="AP22" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,10 +3804,10 @@
         <v>69</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB23" s="11" t="s">
         <v>256</v>
@@ -3847,7 +3844,7 @@
         <v>72</v>
       </c>
       <c r="AP23" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3915,10 +3912,10 @@
         <v>69</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB24" s="11" t="s">
         <v>256</v>
@@ -3955,7 +3952,7 @@
         <v>72</v>
       </c>
       <c r="AP24" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,10 +4020,10 @@
         <v>69</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB25" s="11" t="s">
         <v>256</v>
@@ -4063,7 +4060,7 @@
         <v>72</v>
       </c>
       <c r="AP25" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4131,10 +4128,10 @@
         <v>69</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB26" s="11" t="s">
         <v>256</v>
@@ -4171,7 +4168,7 @@
         <v>72</v>
       </c>
       <c r="AP26" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,10 +4236,10 @@
         <v>69</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB27" s="11" t="s">
         <v>256</v>
@@ -4279,7 +4276,7 @@
         <v>72</v>
       </c>
       <c r="AP27" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,10 +4344,10 @@
         <v>69</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB28" s="11" t="s">
         <v>256</v>
@@ -4387,7 +4384,7 @@
         <v>72</v>
       </c>
       <c r="AP28" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4455,10 +4452,10 @@
         <v>69</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB29" s="11" t="s">
         <v>256</v>
@@ -4495,7 +4492,7 @@
         <v>72</v>
       </c>
       <c r="AP29" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4565,10 +4562,10 @@
         <v>95</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA30" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB30" s="11" t="s">
         <v>257</v>
@@ -4605,7 +4602,7 @@
         <v>72</v>
       </c>
       <c r="AP30" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4675,10 +4672,10 @@
         <v>95</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA31" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB31" s="11" t="s">
         <v>257</v>
@@ -4715,7 +4712,7 @@
         <v>72</v>
       </c>
       <c r="AP31" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4785,10 +4782,10 @@
         <v>95</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA32" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB32" s="11" t="s">
         <v>257</v>
@@ -4825,7 +4822,7 @@
         <v>72</v>
       </c>
       <c r="AP32" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4895,10 +4892,10 @@
         <v>95</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB33" s="11" t="s">
         <v>257</v>
@@ -4935,7 +4932,7 @@
         <v>72</v>
       </c>
       <c r="AP33" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5005,10 +5002,10 @@
         <v>95</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA34" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB34" s="11" t="s">
         <v>257</v>
@@ -5045,7 +5042,7 @@
         <v>72</v>
       </c>
       <c r="AP34" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5115,10 +5112,10 @@
         <v>95</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB35" s="11" t="s">
         <v>257</v>
@@ -5155,7 +5152,7 @@
         <v>72</v>
       </c>
       <c r="AP35" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5219,10 +5216,10 @@
         <v>103</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA36" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB36" s="11" t="s">
         <v>258</v>
@@ -5263,7 +5260,7 @@
         <v>72</v>
       </c>
       <c r="AP36" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5327,10 +5324,10 @@
         <v>103</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB37" s="11" t="s">
         <v>258</v>
@@ -5371,7 +5368,7 @@
         <v>72</v>
       </c>
       <c r="AP37" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5435,10 +5432,10 @@
         <v>103</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA38" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB38" s="11" t="s">
         <v>258</v>
@@ -5479,7 +5476,7 @@
         <v>72</v>
       </c>
       <c r="AP38" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5547,10 +5544,10 @@
         <v>103</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB39" s="11" t="s">
         <v>258</v>
@@ -5587,7 +5584,7 @@
         <v>72</v>
       </c>
       <c r="AP39" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5655,10 +5652,10 @@
         <v>103</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA40" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB40" s="11" t="s">
         <v>258</v>
@@ -5695,7 +5692,7 @@
         <v>72</v>
       </c>
       <c r="AP40" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5759,10 +5756,10 @@
         <v>103</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB41" s="11" t="s">
         <v>258</v>
@@ -5803,7 +5800,7 @@
         <v>72</v>
       </c>
       <c r="AP41" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5871,10 +5868,10 @@
         <v>103</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA42" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB42" s="11" t="s">
         <v>258</v>
@@ -5911,7 +5908,7 @@
         <v>72</v>
       </c>
       <c r="AP42" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,10 +5976,10 @@
         <v>103</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA43" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB43" s="11" t="s">
         <v>258</v>
@@ -6019,7 +6016,7 @@
         <v>72</v>
       </c>
       <c r="AP43" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6083,10 +6080,10 @@
         <v>103</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA44" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB44" s="11" t="s">
         <v>258</v>
@@ -6127,7 +6124,7 @@
         <v>72</v>
       </c>
       <c r="AP44" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6195,10 +6192,10 @@
         <v>103</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB45" s="11" t="s">
         <v>258</v>
@@ -6235,7 +6232,7 @@
         <v>72</v>
       </c>
       <c r="AP45" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6299,10 +6296,10 @@
         <v>103</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA46" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB46" s="11" t="s">
         <v>258</v>
@@ -6343,7 +6340,7 @@
         <v>72</v>
       </c>
       <c r="AP46" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6411,10 +6408,10 @@
         <v>103</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB47" s="11" t="s">
         <v>258</v>
@@ -6451,7 +6448,7 @@
         <v>72</v>
       </c>
       <c r="AP47" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6519,10 +6516,10 @@
         <v>103</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA48" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB48" s="11" t="s">
         <v>258</v>
@@ -6559,7 +6556,7 @@
         <v>72</v>
       </c>
       <c r="AP48" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6627,10 +6624,10 @@
         <v>103</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA49" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB49" s="11" t="s">
         <v>258</v>
@@ -6667,7 +6664,7 @@
         <v>72</v>
       </c>
       <c r="AP49" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6735,10 +6732,10 @@
         <v>103</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA50" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB50" s="11" t="s">
         <v>258</v>
@@ -6775,7 +6772,7 @@
         <v>72</v>
       </c>
       <c r="AP50" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6843,10 +6840,10 @@
         <v>103</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA51" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB51" s="11" t="s">
         <v>258</v>
@@ -6883,7 +6880,7 @@
         <v>72</v>
       </c>
       <c r="AP51" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6951,10 +6948,10 @@
         <v>103</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA52" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB52" s="11" t="s">
         <v>258</v>
@@ -6991,7 +6988,7 @@
         <v>72</v>
       </c>
       <c r="AP52" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7059,10 +7056,10 @@
         <v>103</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB53" s="11" t="s">
         <v>258</v>
@@ -7099,7 +7096,7 @@
         <v>72</v>
       </c>
       <c r="AP53" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7167,10 +7164,10 @@
         <v>103</v>
       </c>
       <c r="Z54" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA54" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB54" s="11" t="s">
         <v>258</v>
@@ -7207,7 +7204,7 @@
         <v>72</v>
       </c>
       <c r="AP54" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7275,13 +7272,13 @@
         <v>125</v>
       </c>
       <c r="Z55" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA55" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB55" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>70</v>
@@ -7317,7 +7314,7 @@
         <v>126</v>
       </c>
       <c r="AP55" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7385,13 +7382,13 @@
         <v>125</v>
       </c>
       <c r="Z56" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA56" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB56" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC56" s="11" t="s">
         <v>70</v>
@@ -7427,7 +7424,7 @@
         <v>126</v>
       </c>
       <c r="AP56" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7491,13 +7488,13 @@
         <v>125</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA57" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC57" s="11" t="s">
         <v>70</v>
@@ -7535,7 +7532,7 @@
         <v>126</v>
       </c>
       <c r="AP57" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7599,13 +7596,13 @@
         <v>125</v>
       </c>
       <c r="Z58" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA58" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC58" s="11" t="s">
         <v>70</v>
@@ -7643,7 +7640,7 @@
         <v>126</v>
       </c>
       <c r="AP58" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7707,13 +7704,13 @@
         <v>125</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA59" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>70</v>
@@ -7751,7 +7748,7 @@
         <v>126</v>
       </c>
       <c r="AP59" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7815,13 +7812,13 @@
         <v>125</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA60" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB60" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC60" s="11" t="s">
         <v>70</v>
@@ -7859,7 +7856,7 @@
         <v>126</v>
       </c>
       <c r="AP60" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7927,13 +7924,13 @@
         <v>125</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA61" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB61" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC61" s="11" t="s">
         <v>70</v>
@@ -7969,7 +7966,7 @@
         <v>126</v>
       </c>
       <c r="AP61" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8033,13 +8030,13 @@
         <v>125</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA62" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB62" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC62" s="11" t="s">
         <v>70</v>
@@ -8077,7 +8074,7 @@
         <v>126</v>
       </c>
       <c r="AP62" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8145,13 +8142,13 @@
         <v>125</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA63" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB63" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC63" s="11" t="s">
         <v>70</v>
@@ -8187,7 +8184,7 @@
         <v>126</v>
       </c>
       <c r="AP63" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8251,13 +8248,13 @@
         <v>125</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB64" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC64" s="11" t="s">
         <v>70</v>
@@ -8295,7 +8292,7 @@
         <v>126</v>
       </c>
       <c r="AP64" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8363,13 +8360,13 @@
         <v>125</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA65" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB65" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>70</v>
@@ -8405,7 +8402,7 @@
         <v>126</v>
       </c>
       <c r="AP65" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8473,13 +8470,13 @@
         <v>125</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA66" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB66" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC66" s="11" t="s">
         <v>70</v>
@@ -8515,7 +8512,7 @@
         <v>126</v>
       </c>
       <c r="AP66" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8583,13 +8580,13 @@
         <v>125</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB67" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC67" s="11" t="s">
         <v>70</v>
@@ -8625,7 +8622,7 @@
         <v>126</v>
       </c>
       <c r="AP67" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8693,13 +8690,13 @@
         <v>125</v>
       </c>
       <c r="Z68" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB68" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC68" s="11" t="s">
         <v>70</v>
@@ -8735,7 +8732,7 @@
         <v>126</v>
       </c>
       <c r="AP68" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8803,13 +8800,13 @@
         <v>125</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB69" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>70</v>
@@ -8845,7 +8842,7 @@
         <v>126</v>
       </c>
       <c r="AP69" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8909,13 +8906,13 @@
         <v>125</v>
       </c>
       <c r="Z70" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB70" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC70" s="11" t="s">
         <v>70</v>
@@ -8953,7 +8950,7 @@
         <v>126</v>
       </c>
       <c r="AP70" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9017,13 +9014,13 @@
         <v>125</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB71" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC71" s="11" t="s">
         <v>70</v>
@@ -9061,7 +9058,7 @@
         <v>126</v>
       </c>
       <c r="AP71" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9129,13 +9126,13 @@
         <v>125</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB72" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC72" s="11" t="s">
         <v>70</v>
@@ -9171,7 +9168,7 @@
         <v>126</v>
       </c>
       <c r="AP72" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9239,13 +9236,13 @@
         <v>125</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB73" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC73" s="11" t="s">
         <v>70</v>
@@ -9281,7 +9278,7 @@
         <v>126</v>
       </c>
       <c r="AP73" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9349,13 +9346,13 @@
         <v>125</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB74" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC74" s="11" t="s">
         <v>70</v>
@@ -9391,7 +9388,7 @@
         <v>126</v>
       </c>
       <c r="AP74" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9459,13 +9456,13 @@
         <v>125</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB75" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC75" s="11" t="s">
         <v>70</v>
@@ -9503,7 +9500,7 @@
         <v>126</v>
       </c>
       <c r="AP75" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9571,13 +9568,13 @@
         <v>125</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB76" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC76" s="11" t="s">
         <v>70</v>
@@ -9613,7 +9610,7 @@
         <v>126</v>
       </c>
       <c r="AP76" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9681,13 +9678,13 @@
         <v>125</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB77" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC77" s="11" t="s">
         <v>70</v>
@@ -9723,7 +9720,7 @@
         <v>126</v>
       </c>
       <c r="AP77" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9787,13 +9784,13 @@
         <v>125</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB78" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC78" s="11" t="s">
         <v>70</v>
@@ -9827,7 +9824,7 @@
         <v>126</v>
       </c>
       <c r="AP78" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9895,13 +9892,13 @@
         <v>154</v>
       </c>
       <c r="Z79" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB79" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC79" s="11" t="s">
         <v>70</v>
@@ -9935,7 +9932,7 @@
         <v>155</v>
       </c>
       <c r="AP79" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10003,13 +10000,13 @@
         <v>154</v>
       </c>
       <c r="Z80" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB80" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC80" s="11" t="s">
         <v>70</v>
@@ -10043,7 +10040,7 @@
         <v>155</v>
       </c>
       <c r="AP80" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10111,13 +10108,13 @@
         <v>154</v>
       </c>
       <c r="Z81" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB81" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC81" s="11" t="s">
         <v>70</v>
@@ -10151,7 +10148,7 @@
         <v>155</v>
       </c>
       <c r="AP81" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10219,13 +10216,13 @@
         <v>154</v>
       </c>
       <c r="Z82" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB82" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC82" s="11" t="s">
         <v>70</v>
@@ -10259,7 +10256,7 @@
         <v>155</v>
       </c>
       <c r="AP82" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10325,13 +10322,13 @@
         <v>154</v>
       </c>
       <c r="Z83" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA83" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB83" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC83" s="11" t="s">
         <v>70</v>
@@ -10365,7 +10362,7 @@
         <v>158</v>
       </c>
       <c r="AP83" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10433,13 +10430,13 @@
         <v>154</v>
       </c>
       <c r="Z84" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA84" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB84" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC84" s="11" t="s">
         <v>70</v>
@@ -10473,7 +10470,7 @@
         <v>155</v>
       </c>
       <c r="AP84" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10539,13 +10536,13 @@
         <v>154</v>
       </c>
       <c r="Z85" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA85" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB85" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC85" s="11" t="s">
         <v>70</v>
@@ -10579,7 +10576,7 @@
         <v>161</v>
       </c>
       <c r="AP85" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10645,13 +10642,13 @@
         <v>154</v>
       </c>
       <c r="Z86" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA86" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB86" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC86" s="11" t="s">
         <v>70</v>
@@ -10685,7 +10682,7 @@
         <v>161</v>
       </c>
       <c r="AP86" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10749,13 +10746,13 @@
       </c>
       <c r="Y87" s="20"/>
       <c r="Z87" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA87" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB87" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC87" s="11" t="s">
         <v>70</v>
@@ -10793,7 +10790,7 @@
         <v>166</v>
       </c>
       <c r="AP87" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10857,13 +10854,13 @@
       </c>
       <c r="Y88" s="20"/>
       <c r="Z88" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA88" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB88" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC88" s="11" t="s">
         <v>70</v>
@@ -10901,7 +10898,7 @@
         <v>166</v>
       </c>
       <c r="AP88" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10961,13 +10958,13 @@
         <v>169</v>
       </c>
       <c r="Z89" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA89" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB89" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC89" s="11" t="s">
         <v>70</v>
@@ -11003,7 +11000,7 @@
       </c>
       <c r="AO89" s="12"/>
       <c r="AP89" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11067,13 +11064,13 @@
         <v>169</v>
       </c>
       <c r="Z90" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA90" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB90" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC90" s="11" t="s">
         <v>70</v>
@@ -11109,7 +11106,7 @@
       </c>
       <c r="AO90" s="12"/>
       <c r="AP90" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11173,13 +11170,13 @@
         <v>169</v>
       </c>
       <c r="Z91" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA91" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB91" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC91" s="11" t="s">
         <v>70</v>
@@ -11215,7 +11212,7 @@
       </c>
       <c r="AO91" s="12"/>
       <c r="AP91" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11283,13 +11280,13 @@
         <v>175</v>
       </c>
       <c r="Z92" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA92" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB92" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC92" s="11" t="s">
         <v>70</v>
@@ -11323,7 +11320,7 @@
         <v>177</v>
       </c>
       <c r="AP92" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11391,13 +11388,13 @@
         <v>175</v>
       </c>
       <c r="Z93" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA93" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB93" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC93" s="11" t="s">
         <v>70</v>
@@ -11430,7 +11427,7 @@
         <v>177</v>
       </c>
       <c r="AP93" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11498,13 +11495,13 @@
         <v>175</v>
       </c>
       <c r="Z94" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA94" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB94" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC94" s="11" t="s">
         <v>70</v>
@@ -11537,7 +11534,7 @@
         <v>177</v>
       </c>
       <c r="AP94" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11605,13 +11602,13 @@
         <v>182</v>
       </c>
       <c r="Z95" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA95" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB95" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>70</v>
@@ -11644,7 +11641,7 @@
         <v>177</v>
       </c>
       <c r="AP95" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11712,13 +11709,13 @@
         <v>175</v>
       </c>
       <c r="Z96" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA96" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB96" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC96" s="11" t="s">
         <v>70</v>
@@ -11751,7 +11748,7 @@
         <v>177</v>
       </c>
       <c r="AP96" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11819,13 +11816,13 @@
         <v>175</v>
       </c>
       <c r="Z97" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA97" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB97" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC97" s="11" t="s">
         <v>70</v>
@@ -11858,7 +11855,7 @@
         <v>177</v>
       </c>
       <c r="AP97" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11926,13 +11923,13 @@
         <v>175</v>
       </c>
       <c r="Z98" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA98" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB98" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC98" s="11" t="s">
         <v>70</v>
@@ -11966,7 +11963,7 @@
         <v>177</v>
       </c>
       <c r="AP98" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12034,13 +12031,13 @@
         <v>175</v>
       </c>
       <c r="Z99" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA99" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB99" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC99" s="11" t="s">
         <v>70</v>
@@ -12074,7 +12071,7 @@
         <v>177</v>
       </c>
       <c r="AP99" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12142,13 +12139,13 @@
         <v>182</v>
       </c>
       <c r="Z100" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB100" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC100" s="11" t="s">
         <v>70</v>
@@ -12182,7 +12179,7 @@
         <v>177</v>
       </c>
       <c r="AP100" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12250,13 +12247,13 @@
         <v>175</v>
       </c>
       <c r="Z101" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA101" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB101" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC101" s="11" t="s">
         <v>70</v>
@@ -12290,7 +12287,7 @@
         <v>177</v>
       </c>
       <c r="AP101" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12358,10 +12355,10 @@
         <v>190</v>
       </c>
       <c r="Z102" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA102" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB102" s="11" t="s">
         <v>256</v>
@@ -12398,7 +12395,7 @@
         <v>177</v>
       </c>
       <c r="AP102" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12466,13 +12463,13 @@
         <v>192</v>
       </c>
       <c r="Z103" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA103" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB103" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC103" s="11" t="s">
         <v>70</v>
@@ -12506,7 +12503,7 @@
         <v>177</v>
       </c>
       <c r="AP103" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12574,13 +12571,13 @@
         <v>175</v>
       </c>
       <c r="Z104" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA104" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB104" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC104" s="11" t="s">
         <v>70</v>
@@ -12614,7 +12611,7 @@
         <v>177</v>
       </c>
       <c r="AP104" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12682,13 +12679,13 @@
         <v>175</v>
       </c>
       <c r="Z105" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA105" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB105" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC105" s="11" t="s">
         <v>70</v>
@@ -12722,7 +12719,7 @@
         <v>177</v>
       </c>
       <c r="AP105" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12790,13 +12787,13 @@
         <v>192</v>
       </c>
       <c r="Z106" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA106" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB106" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC106" s="11" t="s">
         <v>70</v>
@@ -12830,7 +12827,7 @@
         <v>197</v>
       </c>
       <c r="AP106" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12898,13 +12895,13 @@
         <v>192</v>
       </c>
       <c r="Z107" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA107" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB107" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC107" s="11" t="s">
         <v>70</v>
@@ -12938,7 +12935,7 @@
         <v>197</v>
       </c>
       <c r="AP107" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13006,13 +13003,13 @@
         <v>192</v>
       </c>
       <c r="Z108" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA108" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB108" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC108" s="11" t="s">
         <v>70</v>
@@ -13046,7 +13043,7 @@
         <v>197</v>
       </c>
       <c r="AP108" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13110,13 +13107,13 @@
         <v>192</v>
       </c>
       <c r="Z109" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA109" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB109" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC109" s="11" t="s">
         <v>70</v>
@@ -13150,7 +13147,7 @@
         <v>197</v>
       </c>
       <c r="AP109" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13218,13 +13215,13 @@
         <v>192</v>
       </c>
       <c r="Z110" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA110" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB110" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC110" s="11" t="s">
         <v>70</v>
@@ -13258,7 +13255,7 @@
         <v>197</v>
       </c>
       <c r="AP110" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13326,13 +13323,13 @@
         <v>192</v>
       </c>
       <c r="Z111" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA111" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB111" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC111" s="11" t="s">
         <v>70</v>
@@ -13366,7 +13363,7 @@
         <v>204</v>
       </c>
       <c r="AP111" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13434,13 +13431,13 @@
         <v>192</v>
       </c>
       <c r="Z112" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA112" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB112" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC112" s="11" t="s">
         <v>70</v>
@@ -13474,7 +13471,7 @@
         <v>204</v>
       </c>
       <c r="AP112" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13542,13 +13539,13 @@
         <v>192</v>
       </c>
       <c r="Z113" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA113" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB113" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC113" s="11" t="s">
         <v>70</v>
@@ -13582,7 +13579,7 @@
         <v>204</v>
       </c>
       <c r="AP113" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13650,13 +13647,13 @@
         <v>208</v>
       </c>
       <c r="Z114" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA114" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB114" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC114" s="11" t="s">
         <v>70</v>
@@ -13690,7 +13687,7 @@
         <v>204</v>
       </c>
       <c r="AP114" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13758,13 +13755,13 @@
         <v>192</v>
       </c>
       <c r="Z115" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA115" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB115" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC115" s="11" t="s">
         <v>70</v>
@@ -13798,7 +13795,7 @@
         <v>204</v>
       </c>
       <c r="AP115" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13866,13 +13863,13 @@
         <v>192</v>
       </c>
       <c r="Z116" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA116" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB116" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC116" s="11" t="s">
         <v>70</v>
@@ -13906,7 +13903,7 @@
         <v>204</v>
       </c>
       <c r="AP116" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13972,13 +13969,13 @@
         <v>192</v>
       </c>
       <c r="Z117" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA117" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB117" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC117" s="11" t="s">
         <v>70</v>
@@ -14012,7 +14009,7 @@
         <v>214</v>
       </c>
       <c r="AP117" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14078,13 +14075,13 @@
         <v>192</v>
       </c>
       <c r="Z118" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA118" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB118" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC118" s="11" t="s">
         <v>70</v>
@@ -14118,7 +14115,7 @@
         <v>214</v>
       </c>
       <c r="AP118" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14184,13 +14181,13 @@
         <v>175</v>
       </c>
       <c r="Z119" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA119" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB119" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC119" s="11" t="s">
         <v>70</v>
@@ -14224,7 +14221,7 @@
         <v>214</v>
       </c>
       <c r="AP119" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14290,10 +14287,10 @@
         <v>103</v>
       </c>
       <c r="Z120" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA120" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB120" s="11" t="s">
         <v>258</v>
@@ -14330,7 +14327,7 @@
         <v>214</v>
       </c>
       <c r="AP120" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14396,10 +14393,10 @@
         <v>103</v>
       </c>
       <c r="Z121" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA121" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB121" s="11" t="s">
         <v>258</v>
@@ -14440,7 +14437,7 @@
         <v>214</v>
       </c>
       <c r="AP121" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14506,10 +14503,10 @@
         <v>103</v>
       </c>
       <c r="Z122" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA122" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB122" s="11" t="s">
         <v>258</v>
@@ -14546,7 +14543,7 @@
         <v>214</v>
       </c>
       <c r="AP122" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14612,13 +14609,13 @@
         <v>182</v>
       </c>
       <c r="Z123" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA123" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB123" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC123" s="11" t="s">
         <v>70</v>
@@ -14652,7 +14649,7 @@
         <v>214</v>
       </c>
       <c r="AP123" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14718,13 +14715,13 @@
         <v>192</v>
       </c>
       <c r="Z124" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA124" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB124" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC124" s="11" t="s">
         <v>70</v>
@@ -14762,7 +14759,7 @@
         <v>214</v>
       </c>
       <c r="AP124" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14828,13 +14825,13 @@
         <v>192</v>
       </c>
       <c r="Z125" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA125" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB125" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC125" s="11" t="s">
         <v>70</v>
@@ -14868,7 +14865,7 @@
         <v>214</v>
       </c>
       <c r="AP125" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14934,13 +14931,13 @@
         <v>192</v>
       </c>
       <c r="Z126" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA126" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB126" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC126" s="11" t="s">
         <v>70</v>
@@ -14974,7 +14971,7 @@
         <v>214</v>
       </c>
       <c r="AP126" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15040,13 +15037,13 @@
         <v>192</v>
       </c>
       <c r="Z127" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA127" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB127" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC127" s="11" t="s">
         <v>70</v>
@@ -15080,7 +15077,7 @@
         <v>214</v>
       </c>
       <c r="AP127" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15146,13 +15143,13 @@
         <v>192</v>
       </c>
       <c r="Z128" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA128" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB128" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC128" s="11" t="s">
         <v>70</v>
@@ -15186,7 +15183,7 @@
         <v>214</v>
       </c>
       <c r="AP128" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15254,13 +15251,13 @@
         <v>192</v>
       </c>
       <c r="Z129" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA129" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB129" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC129" s="11" t="s">
         <v>70</v>
@@ -15294,7 +15291,7 @@
         <v>229</v>
       </c>
       <c r="AP129" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15362,13 +15359,13 @@
         <v>192</v>
       </c>
       <c r="Z130" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA130" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB130" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC130" s="11" t="s">
         <v>70</v>
@@ -15402,7 +15399,7 @@
         <v>229</v>
       </c>
       <c r="AP130" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15470,13 +15467,13 @@
         <v>192</v>
       </c>
       <c r="Z131" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA131" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB131" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC131" s="11" t="s">
         <v>70</v>
@@ -15510,7 +15507,7 @@
         <v>229</v>
       </c>
       <c r="AP131" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15578,13 +15575,13 @@
         <v>192</v>
       </c>
       <c r="Z132" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA132" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB132" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC132" s="11" t="s">
         <v>70</v>
@@ -15618,7 +15615,7 @@
         <v>204</v>
       </c>
       <c r="AP132" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15686,13 +15683,13 @@
         <v>192</v>
       </c>
       <c r="Z133" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA133" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB133" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC133" s="11" t="s">
         <v>70</v>
@@ -15726,7 +15723,7 @@
         <v>204</v>
       </c>
       <c r="AP133" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15794,13 +15791,13 @@
         <v>192</v>
       </c>
       <c r="Z134" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA134" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB134" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC134" s="11" t="s">
         <v>70</v>
@@ -15834,7 +15831,7 @@
         <v>204</v>
       </c>
       <c r="AP134" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15902,13 +15899,13 @@
         <v>192</v>
       </c>
       <c r="Z135" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA135" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB135" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC135" s="11" t="s">
         <v>70</v>
@@ -15942,7 +15939,7 @@
         <v>204</v>
       </c>
       <c r="AP135" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16008,13 +16005,13 @@
         <v>192</v>
       </c>
       <c r="Z136" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA136" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB136" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC136" s="11" t="s">
         <v>70</v>
@@ -16052,7 +16049,7 @@
         <v>241</v>
       </c>
       <c r="AP136" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16118,13 +16115,13 @@
         <v>192</v>
       </c>
       <c r="Z137" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA137" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB137" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC137" s="11" t="s">
         <v>70</v>
@@ -16162,7 +16159,7 @@
         <v>241</v>
       </c>
       <c r="AP137" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16228,13 +16225,13 @@
         <v>192</v>
       </c>
       <c r="Z138" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA138" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB138" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC138" s="11" t="s">
         <v>70</v>
@@ -16272,7 +16269,7 @@
         <v>241</v>
       </c>
       <c r="AP138" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16338,13 +16335,13 @@
         <v>192</v>
       </c>
       <c r="Z139" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA139" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB139" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC139" s="11" t="s">
         <v>70</v>
@@ -16382,7 +16379,7 @@
         <v>241</v>
       </c>
       <c r="AP139" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16448,13 +16445,13 @@
         <v>192</v>
       </c>
       <c r="Z140" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA140" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB140" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC140" s="11" t="s">
         <v>70</v>
@@ -16492,7 +16489,7 @@
         <v>241</v>
       </c>
       <c r="AP140" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16554,13 +16551,13 @@
         <v>192</v>
       </c>
       <c r="Z141" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA141" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB141" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC141" s="11" t="s">
         <v>70</v>
@@ -16598,7 +16595,7 @@
         <v>241</v>
       </c>
       <c r="AP141" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16664,13 +16661,13 @@
         <v>192</v>
       </c>
       <c r="Z142" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA142" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB142" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC142" s="11" t="s">
         <v>70</v>
@@ -16708,7 +16705,7 @@
         <v>241</v>
       </c>
       <c r="AP142" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16776,13 +16773,13 @@
         <v>192</v>
       </c>
       <c r="Z143" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA143" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB143" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC143" s="11" t="s">
         <v>70</v>
@@ -16816,7 +16813,7 @@
         <v>229</v>
       </c>
       <c r="AP143" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/vgp_database/Latir_volcanic_field.xlsx
+++ b/data/vgp_database/Latir_volcanic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D81C53-483D-1A40-A920-23BC3E159036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA09BF-161B-B142-BA76-06063F6CEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="272">
   <si>
     <t>Name:</t>
   </si>
@@ -852,405 +852,6 @@
   </si>
   <si>
     <t>10.1029/JB091iB07p07383:10.1130/B30544.1</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.2</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.3</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.4</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.5</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.6</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.7</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.8</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.9</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.10</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.11</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.12</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.13</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.14</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.15</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.16</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.17</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.18</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.19</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.20</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.21</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.22</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.23</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.24</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.25</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.26</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.27</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.28</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.29</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.30</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.31</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.32</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.33</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.34</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.35</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.36</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.37</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.38</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.39</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.40</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.41</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.42</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.43</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.44</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.45</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.46</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.47</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.48</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.49</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.50</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.51</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.52</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.53</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.54</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.55</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.56</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.57</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.58</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.59</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.60</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.61</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.62</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.63</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.64</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.65</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.66</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.67</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.68</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.69</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.70</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.71</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.72</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.73</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.74</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.75</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.76</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.77</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.78</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.79</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.80</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.81</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.82</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.83</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.84</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.85</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.86</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.87</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.88</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.89</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.90</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.91</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.92</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.93</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.94</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.95</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.96</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.97</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.98</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.99</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.100</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.101</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.102</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.103</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.104</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.105</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.106</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.107</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.108</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.109</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.110</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.111</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.112</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.113</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.114</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.115</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.116</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.117</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.118</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.119</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.120</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.121</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.122</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.123</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.124</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.125</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.126</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.127</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.128</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.129</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.130</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.131</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.132</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.133</t>
-  </si>
-  <si>
-    <t>10.1029/JB091iB07p07383:10.1130/B30544.134</t>
   </si>
 </sst>
 </file>
@@ -1671,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S107" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11:AP143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2547,8 +2148,9 @@
       <c r="AO11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP11" s="31" t="s">
-        <v>272</v>
+      <c r="AP11" s="31" t="str">
+        <f>AP10</f>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,8 +2257,9 @@
       <c r="AO12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP12" s="31" t="s">
-        <v>273</v>
+      <c r="AP12" s="31" t="str">
+        <f t="shared" ref="AP12:AP75" si="0">AP11</f>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,8 +2366,9 @@
       <c r="AO13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP13" s="31" t="s">
-        <v>274</v>
+      <c r="AP13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2871,8 +2475,9 @@
       <c r="AO14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP14" s="31" t="s">
-        <v>275</v>
+      <c r="AP14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2979,8 +2584,9 @@
       <c r="AO15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP15" s="31" t="s">
-        <v>276</v>
+      <c r="AP15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3087,8 +2693,9 @@
       <c r="AO16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP16" s="31" t="s">
-        <v>277</v>
+      <c r="AP16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,8 +2802,9 @@
       <c r="AO17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP17" s="31" t="s">
-        <v>278</v>
+      <c r="AP17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3303,8 +2911,9 @@
       <c r="AO18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP18" s="31" t="s">
-        <v>279</v>
+      <c r="AP18" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,8 +3020,9 @@
       <c r="AO19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP19" s="31" t="s">
-        <v>280</v>
+      <c r="AP19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3519,8 +3129,9 @@
       <c r="AO20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP20" s="31" t="s">
-        <v>281</v>
+      <c r="AP20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,8 +3238,9 @@
       <c r="AO21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP21" s="31" t="s">
-        <v>282</v>
+      <c r="AP21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3735,8 +3347,9 @@
       <c r="AO22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP22" s="31" t="s">
-        <v>283</v>
+      <c r="AP22" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3843,8 +3456,9 @@
       <c r="AO23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP23" s="31" t="s">
-        <v>284</v>
+      <c r="AP23" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3951,8 +3565,9 @@
       <c r="AO24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP24" s="31" t="s">
-        <v>285</v>
+      <c r="AP24" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,8 +3674,9 @@
       <c r="AO25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP25" s="31" t="s">
-        <v>286</v>
+      <c r="AP25" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,8 +3783,9 @@
       <c r="AO26" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP26" s="31" t="s">
-        <v>287</v>
+      <c r="AP26" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4275,8 +3892,9 @@
       <c r="AO27" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP27" s="31" t="s">
-        <v>288</v>
+      <c r="AP27" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4383,8 +4001,9 @@
       <c r="AO28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP28" s="31" t="s">
-        <v>289</v>
+      <c r="AP28" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4491,8 +4110,9 @@
       <c r="AO29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP29" s="31" t="s">
-        <v>290</v>
+      <c r="AP29" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4601,8 +4221,9 @@
       <c r="AO30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP30" s="31" t="s">
-        <v>291</v>
+      <c r="AP30" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4711,8 +4332,9 @@
       <c r="AO31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP31" s="31" t="s">
-        <v>292</v>
+      <c r="AP31" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4821,8 +4443,9 @@
       <c r="AO32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP32" s="31" t="s">
-        <v>293</v>
+      <c r="AP32" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4931,8 +4554,9 @@
       <c r="AO33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP33" s="31" t="s">
-        <v>294</v>
+      <c r="AP33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5041,8 +4665,9 @@
       <c r="AO34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP34" s="31" t="s">
-        <v>295</v>
+      <c r="AP34" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5151,8 +4776,9 @@
       <c r="AO35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP35" s="31" t="s">
-        <v>296</v>
+      <c r="AP35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,8 +4885,9 @@
       <c r="AO36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP36" s="31" t="s">
-        <v>297</v>
+      <c r="AP36" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,8 +4994,9 @@
       <c r="AO37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP37" s="31" t="s">
-        <v>298</v>
+      <c r="AP37" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5475,8 +5103,9 @@
       <c r="AO38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP38" s="31" t="s">
-        <v>299</v>
+      <c r="AP38" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,8 +5212,9 @@
       <c r="AO39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP39" s="31" t="s">
-        <v>300</v>
+      <c r="AP39" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5691,8 +5321,9 @@
       <c r="AO40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP40" s="31" t="s">
-        <v>301</v>
+      <c r="AP40" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5799,8 +5430,9 @@
       <c r="AO41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP41" s="31" t="s">
-        <v>302</v>
+      <c r="AP41" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5907,8 +5539,9 @@
       <c r="AO42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP42" s="31" t="s">
-        <v>303</v>
+      <c r="AP42" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6015,8 +5648,9 @@
       <c r="AO43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP43" s="31" t="s">
-        <v>304</v>
+      <c r="AP43" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6123,8 +5757,9 @@
       <c r="AO44" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP44" s="31" t="s">
-        <v>305</v>
+      <c r="AP44" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6231,8 +5866,9 @@
       <c r="AO45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP45" s="31" t="s">
-        <v>306</v>
+      <c r="AP45" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6339,8 +5975,9 @@
       <c r="AO46" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP46" s="31" t="s">
-        <v>307</v>
+      <c r="AP46" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6447,8 +6084,9 @@
       <c r="AO47" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP47" s="31" t="s">
-        <v>308</v>
+      <c r="AP47" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6555,8 +6193,9 @@
       <c r="AO48" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP48" s="31" t="s">
-        <v>309</v>
+      <c r="AP48" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="49" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,8 +6302,9 @@
       <c r="AO49" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP49" s="31" t="s">
-        <v>310</v>
+      <c r="AP49" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6771,8 +6411,9 @@
       <c r="AO50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP50" s="31" t="s">
-        <v>311</v>
+      <c r="AP50" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6879,8 +6520,9 @@
       <c r="AO51" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP51" s="31" t="s">
-        <v>312</v>
+      <c r="AP51" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6987,8 +6629,9 @@
       <c r="AO52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP52" s="31" t="s">
-        <v>313</v>
+      <c r="AP52" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7095,8 +6738,9 @@
       <c r="AO53" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP53" s="31" t="s">
-        <v>314</v>
+      <c r="AP53" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,8 +6847,9 @@
       <c r="AO54" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AP54" s="31" t="s">
-        <v>315</v>
+      <c r="AP54" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7313,8 +6958,9 @@
       <c r="AO55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP55" s="31" t="s">
-        <v>316</v>
+      <c r="AP55" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="56" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7423,8 +7069,9 @@
       <c r="AO56" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP56" s="31" t="s">
-        <v>317</v>
+      <c r="AP56" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="57" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7531,8 +7178,9 @@
       <c r="AO57" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP57" s="31" t="s">
-        <v>318</v>
+      <c r="AP57" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="58" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7639,8 +7287,9 @@
       <c r="AO58" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP58" s="31" t="s">
-        <v>319</v>
+      <c r="AP58" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7747,8 +7396,9 @@
       <c r="AO59" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP59" s="31" t="s">
-        <v>320</v>
+      <c r="AP59" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7855,8 +7505,9 @@
       <c r="AO60" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP60" s="31" t="s">
-        <v>321</v>
+      <c r="AP60" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="61" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7965,8 +7616,9 @@
       <c r="AO61" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP61" s="31" t="s">
-        <v>322</v>
+      <c r="AP61" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="62" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8073,8 +7725,9 @@
       <c r="AO62" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP62" s="31" t="s">
-        <v>323</v>
+      <c r="AP62" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="63" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8183,8 +7836,9 @@
       <c r="AO63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP63" s="31" t="s">
-        <v>324</v>
+      <c r="AP63" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8291,8 +7945,9 @@
       <c r="AO64" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP64" s="31" t="s">
-        <v>325</v>
+      <c r="AP64" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8401,8 +8056,9 @@
       <c r="AO65" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP65" s="31" t="s">
-        <v>326</v>
+      <c r="AP65" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="66" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8511,8 +8167,9 @@
       <c r="AO66" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP66" s="31" t="s">
-        <v>327</v>
+      <c r="AP66" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="67" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8621,8 +8278,9 @@
       <c r="AO67" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP67" s="31" t="s">
-        <v>328</v>
+      <c r="AP67" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="68" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8731,8 +8389,9 @@
       <c r="AO68" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP68" s="31" t="s">
-        <v>329</v>
+      <c r="AP68" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="69" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8841,8 +8500,9 @@
       <c r="AO69" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP69" s="31" t="s">
-        <v>330</v>
+      <c r="AP69" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="70" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8949,8 +8609,9 @@
       <c r="AO70" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP70" s="31" t="s">
-        <v>331</v>
+      <c r="AP70" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="71" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9057,8 +8718,9 @@
       <c r="AO71" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP71" s="31" t="s">
-        <v>332</v>
+      <c r="AP71" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="72" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9167,8 +8829,9 @@
       <c r="AO72" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP72" s="31" t="s">
-        <v>333</v>
+      <c r="AP72" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="73" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9277,8 +8940,9 @@
       <c r="AO73" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP73" s="31" t="s">
-        <v>334</v>
+      <c r="AP73" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="74" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9387,8 +9051,9 @@
       <c r="AO74" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP74" s="31" t="s">
-        <v>335</v>
+      <c r="AP74" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="75" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9499,8 +9164,9 @@
       <c r="AO75" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP75" s="31" t="s">
-        <v>336</v>
+      <c r="AP75" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="76" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9609,8 +9275,9 @@
       <c r="AO76" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP76" s="31" t="s">
-        <v>337</v>
+      <c r="AP76" s="31" t="str">
+        <f t="shared" ref="AP76:AP139" si="1">AP75</f>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="77" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9719,8 +9386,9 @@
       <c r="AO77" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP77" s="31" t="s">
-        <v>338</v>
+      <c r="AP77" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9823,8 +9491,9 @@
       <c r="AO78" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AP78" s="31" t="s">
-        <v>339</v>
+      <c r="AP78" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="79" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9931,8 +9600,9 @@
       <c r="AO79" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AP79" s="31" t="s">
-        <v>340</v>
+      <c r="AP79" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="80" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10039,8 +9709,9 @@
       <c r="AO80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AP80" s="31" t="s">
-        <v>341</v>
+      <c r="AP80" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="81" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,8 +9818,9 @@
       <c r="AO81" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AP81" s="31" t="s">
-        <v>342</v>
+      <c r="AP81" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="82" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10255,8 +9927,9 @@
       <c r="AO82" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AP82" s="31" t="s">
-        <v>343</v>
+      <c r="AP82" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10361,8 +10034,9 @@
       <c r="AO83" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AP83" s="31" t="s">
-        <v>344</v>
+      <c r="AP83" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="84" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10469,8 +10143,9 @@
       <c r="AO84" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AP84" s="31" t="s">
-        <v>345</v>
+      <c r="AP84" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="85" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10575,8 +10250,9 @@
       <c r="AO85" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AP85" s="31" t="s">
-        <v>346</v>
+      <c r="AP85" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="86" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10681,8 +10357,9 @@
       <c r="AO86" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AP86" s="31" t="s">
-        <v>347</v>
+      <c r="AP86" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="87" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10789,8 +10466,9 @@
       <c r="AO87" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AP87" s="31" t="s">
-        <v>348</v>
+      <c r="AP87" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="88" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10897,8 +10575,9 @@
       <c r="AO88" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AP88" s="31" t="s">
-        <v>349</v>
+      <c r="AP88" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10999,8 +10678,9 @@
         <v>165</v>
       </c>
       <c r="AO89" s="12"/>
-      <c r="AP89" s="31" t="s">
-        <v>350</v>
+      <c r="AP89" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11105,8 +10785,9 @@
         <v>165</v>
       </c>
       <c r="AO90" s="12"/>
-      <c r="AP90" s="31" t="s">
-        <v>351</v>
+      <c r="AP90" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11211,8 +10892,9 @@
         <v>165</v>
       </c>
       <c r="AO91" s="12"/>
-      <c r="AP91" s="31" t="s">
-        <v>352</v>
+      <c r="AP91" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="92" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11319,8 +11001,9 @@
       <c r="AO92" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP92" s="31" t="s">
-        <v>353</v>
+      <c r="AP92" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="93" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11426,8 +11109,9 @@
       <c r="AO93" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP93" s="31" t="s">
-        <v>354</v>
+      <c r="AP93" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="94" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11533,8 +11217,9 @@
       <c r="AO94" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP94" s="31" t="s">
-        <v>355</v>
+      <c r="AP94" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11640,8 +11325,9 @@
       <c r="AO95" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP95" s="31" t="s">
-        <v>356</v>
+      <c r="AP95" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11747,8 +11433,9 @@
       <c r="AO96" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP96" s="31" t="s">
-        <v>357</v>
+      <c r="AP96" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11854,8 +11541,9 @@
       <c r="AO97" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP97" s="31" t="s">
-        <v>358</v>
+      <c r="AP97" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11962,8 +11650,9 @@
       <c r="AO98" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP98" s="31" t="s">
-        <v>359</v>
+      <c r="AP98" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="99" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12070,8 +11759,9 @@
       <c r="AO99" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP99" s="31" t="s">
-        <v>360</v>
+      <c r="AP99" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="100" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12178,8 +11868,9 @@
       <c r="AO100" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP100" s="31" t="s">
-        <v>361</v>
+      <c r="AP100" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12286,8 +11977,9 @@
       <c r="AO101" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP101" s="31" t="s">
-        <v>362</v>
+      <c r="AP101" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12394,8 +12086,9 @@
       <c r="AO102" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP102" s="31" t="s">
-        <v>363</v>
+      <c r="AP102" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12502,8 +12195,9 @@
       <c r="AO103" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP103" s="31" t="s">
-        <v>364</v>
+      <c r="AP103" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12610,8 +12304,9 @@
       <c r="AO104" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP104" s="31" t="s">
-        <v>365</v>
+      <c r="AP104" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12718,8 +12413,9 @@
       <c r="AO105" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AP105" s="31" t="s">
-        <v>366</v>
+      <c r="AP105" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12826,8 +12522,9 @@
       <c r="AO106" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AP106" s="31" t="s">
-        <v>367</v>
+      <c r="AP106" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12934,8 +12631,9 @@
       <c r="AO107" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AP107" s="31" t="s">
-        <v>368</v>
+      <c r="AP107" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13042,8 +12740,9 @@
       <c r="AO108" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AP108" s="31" t="s">
-        <v>369</v>
+      <c r="AP108" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13146,8 +12845,9 @@
       <c r="AO109" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AP109" s="31" t="s">
-        <v>370</v>
+      <c r="AP109" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="110" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13254,8 +12954,9 @@
       <c r="AO110" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AP110" s="31" t="s">
-        <v>371</v>
+      <c r="AP110" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13362,8 +13063,9 @@
       <c r="AO111" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP111" s="31" t="s">
-        <v>372</v>
+      <c r="AP111" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13470,8 +13172,9 @@
       <c r="AO112" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP112" s="31" t="s">
-        <v>373</v>
+      <c r="AP112" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="113" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13578,8 +13281,9 @@
       <c r="AO113" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP113" s="31" t="s">
-        <v>374</v>
+      <c r="AP113" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="114" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13686,8 +13390,9 @@
       <c r="AO114" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP114" s="31" t="s">
-        <v>375</v>
+      <c r="AP114" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="115" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13794,8 +13499,9 @@
       <c r="AO115" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP115" s="31" t="s">
-        <v>376</v>
+      <c r="AP115" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="116" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13902,8 +13608,9 @@
       <c r="AO116" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP116" s="31" t="s">
-        <v>377</v>
+      <c r="AP116" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="117" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14008,8 +13715,9 @@
       <c r="AO117" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP117" s="31" t="s">
-        <v>378</v>
+      <c r="AP117" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="118" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14114,8 +13822,9 @@
       <c r="AO118" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP118" s="31" t="s">
-        <v>379</v>
+      <c r="AP118" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="119" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14220,8 +13929,9 @@
       <c r="AO119" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP119" s="31" t="s">
-        <v>380</v>
+      <c r="AP119" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="120" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14326,8 +14036,9 @@
       <c r="AO120" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP120" s="31" t="s">
-        <v>381</v>
+      <c r="AP120" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="121" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14436,8 +14147,9 @@
       <c r="AO121" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP121" s="31" t="s">
-        <v>382</v>
+      <c r="AP121" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="122" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14542,8 +14254,9 @@
       <c r="AO122" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP122" s="31" t="s">
-        <v>383</v>
+      <c r="AP122" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="123" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14648,8 +14361,9 @@
       <c r="AO123" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP123" s="31" t="s">
-        <v>384</v>
+      <c r="AP123" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="124" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14758,8 +14472,9 @@
       <c r="AO124" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP124" s="31" t="s">
-        <v>385</v>
+      <c r="AP124" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="125" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14864,8 +14579,9 @@
       <c r="AO125" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP125" s="31" t="s">
-        <v>386</v>
+      <c r="AP125" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="126" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14970,8 +14686,9 @@
       <c r="AO126" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP126" s="31" t="s">
-        <v>387</v>
+      <c r="AP126" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="127" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15076,8 +14793,9 @@
       <c r="AO127" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP127" s="31" t="s">
-        <v>388</v>
+      <c r="AP127" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="128" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15182,8 +14900,9 @@
       <c r="AO128" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AP128" s="31" t="s">
-        <v>389</v>
+      <c r="AP128" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="129" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15290,8 +15009,9 @@
       <c r="AO129" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AP129" s="31" t="s">
-        <v>390</v>
+      <c r="AP129" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="130" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15398,8 +15118,9 @@
       <c r="AO130" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AP130" s="31" t="s">
-        <v>391</v>
+      <c r="AP130" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="131" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15506,8 +15227,9 @@
       <c r="AO131" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AP131" s="31" t="s">
-        <v>392</v>
+      <c r="AP131" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="132" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15614,8 +15336,9 @@
       <c r="AO132" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP132" s="31" t="s">
-        <v>393</v>
+      <c r="AP132" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="133" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15722,8 +15445,9 @@
       <c r="AO133" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP133" s="31" t="s">
-        <v>394</v>
+      <c r="AP133" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="134" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15830,8 +15554,9 @@
       <c r="AO134" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP134" s="31" t="s">
-        <v>395</v>
+      <c r="AP134" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="135" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15938,8 +15663,9 @@
       <c r="AO135" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AP135" s="31" t="s">
-        <v>396</v>
+      <c r="AP135" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="136" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16048,8 +15774,9 @@
       <c r="AO136" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP136" s="31" t="s">
-        <v>397</v>
+      <c r="AP136" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="137" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16158,8 +15885,9 @@
       <c r="AO137" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP137" s="31" t="s">
-        <v>398</v>
+      <c r="AP137" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="138" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16268,8 +15996,9 @@
       <c r="AO138" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP138" s="31" t="s">
-        <v>399</v>
+      <c r="AP138" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="139" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16378,8 +16107,9 @@
       <c r="AO139" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP139" s="31" t="s">
-        <v>400</v>
+      <c r="AP139" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="140" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16488,8 +16218,9 @@
       <c r="AO140" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP140" s="31" t="s">
-        <v>401</v>
+      <c r="AP140" s="31" t="str">
+        <f t="shared" ref="AP140:AP143" si="2">AP139</f>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="141" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16594,8 +16325,9 @@
       <c r="AO141" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP141" s="31" t="s">
-        <v>402</v>
+      <c r="AP141" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="142" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16704,8 +16436,9 @@
       <c r="AO142" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AP142" s="31" t="s">
-        <v>403</v>
+      <c r="AP142" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="143" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16812,8 +16545,9 @@
       <c r="AO143" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AP143" s="31" t="s">
-        <v>404</v>
+      <c r="AP143" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>10.1029/JB091iB07p07383:10.1130/B30544.1</v>
       </c>
     </row>
     <row r="144" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20529,7 +20263,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP10" r:id="rId1" display="https://doi.org/10.1029/JB091iB07p07383" xr:uid="{9E20DBC7-C19B-754A-B72C-BAF4E288DEC5}"/>
-    <hyperlink ref="AP11:AP143" r:id="rId2" display="https://doi.org/10.1029/JB091iB07p07383" xr:uid="{5D5E2D44-A6E7-CB4C-85ED-473EBFB8D01C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
